--- a/lib/davinci_crd_test_kit/requirements/cds-hooks-library_1.0.1_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/cds-hooks-library_1.0.1_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365F7EF5-A356-9A45-9BD8-B5D2D4B0BFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C377E1E-418F-7B42-9E5B-C7D3DAA425A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="178">
   <si>
     <r>
       <rPr>
@@ -1570,9 +1570,6 @@
     <t>cds-hooks-library_1.0.1</t>
   </si>
   <si>
-    <t>CDS-hooks-library_1.0.1 Requiremetns</t>
-  </si>
-  <si>
     <t>https://cds-hooks.hl7.org/hooks/STU1/</t>
   </si>
   <si>
@@ -1591,9 +1588,6 @@
     <t>[When invoking the order-sign hook if context field] `userId`[is populated it SHALL be t]he id of the current user … of type [Practitioner](https://www.hl7.org/fhir/practitioner.html) or [PractitionerRole](https://www.hl7.org/fhir/practitionerrole.html).</t>
   </si>
   <si>
-    <t>Yes[, Servers MAY use the] `userId` [context field in prefetch tokens]</t>
-  </si>
-  <si>
     <t>Server</t>
   </si>
   <si>
@@ -1606,9 +1600,6 @@
     <t>[When invoking the order-sign hook if context field] `patientId`[is populated it SHALL be t]he FHIR `Patient.id` of the current patient in context</t>
   </si>
   <si>
-    <t>Yes[, Servers MAY use the] `patientId` [context field in prefetch tokens]</t>
-  </si>
-  <si>
     <t>[When invoking the order-sign hook if context field] `encounterId`[is populated it SHALL be a ] *string*</t>
   </si>
   <si>
@@ -1621,9 +1612,6 @@
     <t>[When invoking the order-sign hook the context field] `encounterId`[is] OPTIONAL</t>
   </si>
   <si>
-    <t>Yes[, Servers MAY use the] `encounterId` [context field in prefetch tokens]</t>
-  </si>
-  <si>
     <t>[When invoking the order-sign hook the context field] `draftOrders`[is] REQUIRED</t>
   </si>
   <si>
@@ -1639,10 +1627,284 @@
     <t>userId required</t>
   </si>
   <si>
-    <t>[When invoking the order-sign hook if context field] `userId`[is populated it SHALL be a] Bundle of FHIR request resources with a draft status, representing orders that aren't yet signed from the current ordering session.</t>
-  </si>
-  <si>
-    <t>No[, Servers SHALL NOT use the] `userId` [context field in prefetch tokens]</t>
+    <t>CDS Hooks Library</t>
+  </si>
+  <si>
+    <t>https://cds-hooks.hl7.org/hooks/STU1/appointment-book.html#context</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook the context field] `userId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook if context field] `userId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook the context field] `patientId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook if context field] `patientId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook the context field] `encounterId`[is] OPTIONAL</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook if context field] `encounterId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `userId` [context field in prefetch tokens for the appointment-book hook]</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `patientId` [context field in prefetch tokens for the appointment-book hook]</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `encounterId` [context field in prefetch tokens for the appointment-book hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the order-sign hook if context field] `draftOrders`[is populated it SHALL be a] Bundle of FHIR request resources with a draft status, representing orders that aren't yet signed from the current ordering session.</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook if context field] `userId`[is populated it SHALL be t]he id of the current user … of type [Practitioner](https://www.hl7.org/fhir/practitioner.html), [PractitionerRole](https://www.hl7.org/fhir/practitionerrole.html), [Patient](https://www.hl7.org/fhir/patient.html), or [RelatedPerson](https://www.hl7.org/fhir/relatedperson.html).</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `userId` [context field in prefetch tokens for the order-sign hook]</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `patientId` [context field in prefetch tokens for the order-sign hook]</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `encounterId` [context field in prefetch tokens for the order-sign hook]</t>
+  </si>
+  <si>
+    <t>No[, Servers SHALL NOT use the] `draftOrders` [context field in prefetch tokens for the order-sign hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook if context field] `encounterId`[is populated it SHALL be t]he FHIR `Encounter.id` of Encounter where booking was initiated</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook the context field] `appointments`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook if context field] `appointments`[is populated it SHALL be an ] *object*</t>
+  </si>
+  <si>
+    <t>No[, Servers SHALL NOT use the] `appointments` [context field in prefetch tokens for the appointment-book hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook if context field] `appointments`[is populated it SHALL be a] FHIR Bundle of Appointments in 'proposed' state</t>
+  </si>
+  <si>
+    <t>https://cds-hooks.hl7.org/hooks/STU1/encounter-start.html#context</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-start hook if context field] `userId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-start hook if context field] `userId`[is populated it SHALL be t]he id of the current user … of type [Practitioner](https://www.hl7.org/fhir/practitioner.html) or [PractitionerRole](https://www.hl7.org/fhir/practitionerrole.html).</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `userId` [context field in prefetch tokens for the encounter-start hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-start hook the context field] `patientId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-start hook if context field] `patientId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `patientId` [context field in prefetch tokens for the encounter-start hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-start hook if context field] `encounterId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `encounterId` [context field in prefetch tokens for the encounter-start hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-start hook the context field] `userId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-start hook if context field] `patientId`[is populated it SHALL be t]he FHIR `Patient.id` of the Patient the Encounter is for</t>
+  </si>
+  <si>
+    <t>[When invoking the appointment-book hook if context field] `patientId`[is populated it SHALL be t]he FHIR `Patient.id` of Patient appointment(s) is/are for</t>
+  </si>
+  <si>
+    <t>encounterId required</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-start hook if context field] `encounterId`[is populated it SHALL be t]he FHIR `Encounter.id` of the Encounter being started</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-start hook the context field] `encounterId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>https://cds-hooks.hl7.org/hooks/STU1/encounter-discharge.html#context</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-discharge hook the context field] `userId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-discharge hook if context field] `userId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-discharge hook if context field] `userId`[is populated it SHALL be t]he id of the current user … of type [Practitioner](https://www.hl7.org/fhir/practitioner.html) or [PractitionerRole](https://www.hl7.org/fhir/practitionerrole.html).</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `userId` [context field in prefetch tokens for the encounter-discharge hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-discharge hook the context field] `patientId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-discharge hook if context field] `patientId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `patientId` [context field in prefetch tokens for the encounter-discharge hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-discharge hook the context field] `encounterId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-discharge hook if context field] `encounterId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `encounterId` [context field in prefetch tokens for the encounter-discharge hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-discharge hook if context field] `patientId`[is populated it SHALL be t]he FHIR `Patient.id` of the [patient] being discharged</t>
+  </si>
+  <si>
+    <t>[When invoking the encounter-discharge hook if context field] `encounterId`[is populated it SHALL be t]he FHIR `Encounter.id` of the Encounter being ended</t>
+  </si>
+  <si>
+    <t>https://cds-hooks.hl7.org/hooks/STU1/order-dispatch.html#context</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook if context field] `performer`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook if context field] `performer`[is populated it SHALL be t]he FHIR local reference for the Practitioner, PractitionerRole, Organization, CareTeam, etc. who is being asked to execute the order</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `performer` [context field in prefetch tokens for the order-dispatch hook]</t>
+  </si>
+  <si>
+    <t>performer required</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook the context field] `patientId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook if context field] `patientId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook if context field] `patientId`[is populated it SHALL be t]he FHIR `Patient.id` of the current patient in context</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `patientId` [context field in prefetch tokens for the order-dispatch hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook if context field] `dispatchedOrders`[is populated it SHALL be an ] *array*</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook the context field] `dispatchedOrders`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>dispatchedOrders required</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook if context field] `dispatchedOrders`[is populated it SHALL be a c]ollection of the FHIR local references for the Request resource(s) for which fulfillment is sought</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `dispatchedOrders` [context field in prefetch tokens for the order-dispatch hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook if context field] `fulfillmentTasks`[is populated it SHALL be an] *array*</t>
+  </si>
+  <si>
+    <t>if fulfillmentTasks populated</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook if context field] `fulfillmentTasks`[is populated it SHALL be a c]ollection of the Task instances (as objects) that provides a full description of the fulfillment request - including the timing and any constraints on fulfillment.</t>
+  </si>
+  <si>
+    <t>No[, Servers SHALL NOT use the] `fulfillmentTasks` [context field in prefetch tokens for the order-dispatch hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook if context field] `fulfillmentTasks`[is populated] each [task] will be for a separate order and SHALL reference one of the dispatched-orders.</t>
+  </si>
+  <si>
+    <t>https://cds-hooks.hl7.org/hooks/STU1/order-select.html#context</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook the context field] `userId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook if context field] `userId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook if context field] `userId`[is populated it SHALL be t]he id of the current user … of type [Practitioner](https://www.hl7.org/fhir/practitioner.html) or [PractitionerRole](https://www.hl7.org/fhir/practitionerrole.html).</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `userId` [context field in prefetch tokens for the order-select hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook the context field] `patientId`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook if context field] `patientId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook if context field] `patientId`[is populated it SHALL be t]he FHIR `Patient.id` of the current patient in context</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `patientId` [context field in prefetch tokens for the order-select hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook the context field] `encounterId`[is] OPTIONAL</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook if context field] `encounterId`[is populated it SHALL be a ] *string*</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook if context field] `encounterId`[is populated it SHALL be t]he FHIR `Encounter.id` of the current encounter in context</t>
+  </si>
+  <si>
+    <t>Yes[, Servers MAY use the] `encounterId` [context field in prefetch tokens for the order-select hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook the context field] `draftOrders`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook if context field] `draftOrders`[is populated it SHALL be an ] *object*</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook if context field] `draftOrders`[is populated it SHALL be a] Bundle of FHIR request resources with a draft status, representing orders that aren't yet signed from the current ordering session.</t>
+  </si>
+  <si>
+    <t>No[, Servers SHALL NOT use the] `draftOrders` [context field in prefetch tokens for the order-select hook]</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook the context field] `performer`[is] REQUIRED</t>
+  </si>
+  <si>
+    <t>[When invoking the order-dispatch hook the context field] `fulfillmentTasks`[is] Optional</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook the context field] `selections`[is] Optional</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook if context field] `selections`[is populated it SHALL be an] *array*</t>
+  </si>
+  <si>
+    <t>No[, Servers SHALL NOT use the] `selections` [context field in prefetch tokens for the order-select hook]</t>
+  </si>
+  <si>
+    <t>if selections populated</t>
+  </si>
+  <si>
+    <t>[When invoking the order-select hook if context field] `selections`[is populated it SHALL be t]he FHIR id of the newly selected order(s) … [that]
+references FHIR resources in the `draftOrders` Bundle.</t>
   </si>
 </sst>
 </file>
@@ -2528,13 +2790,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2626,10 +2888,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -2646,10 +2908,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>20</v>
@@ -2661,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="119" x14ac:dyDescent="0.2">
@@ -2669,10 +2931,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>20</v>
@@ -2684,24 +2946,24 @@
         <v>0</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="6" t="b">
         <v>0</v>
@@ -2712,10 +2974,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>20</v>
@@ -2732,10 +2994,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
@@ -2747,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="68" x14ac:dyDescent="0.2">
@@ -2755,10 +3017,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>20</v>
@@ -2770,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="34" x14ac:dyDescent="0.2">
@@ -2778,16 +3040,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="6" t="b">
         <v>0</v>
@@ -2798,10 +3060,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>45</v>
@@ -2818,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>20</v>
@@ -2833,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="68" x14ac:dyDescent="0.2">
@@ -2841,10 +3103,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>20</v>
@@ -2856,24 +3118,24 @@
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G13" s="6" t="b">
         <v>0</v>
@@ -2884,10 +3146,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>20</v>
@@ -2904,10 +3166,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>20</v>
@@ -2919,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="85" x14ac:dyDescent="0.2">
@@ -2927,10 +3189,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>20</v>
@@ -2942,32 +3204,1695 @@
         <v>0</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G74" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="G17" s="6" t="b">
+      <c r="B75" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G78" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G82" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G86" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G90" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G91" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G92" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G94" s="6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AH1" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B34" r:id="rId1" location="context" xr:uid="{2B58701D-4D03-4442-A640-91CB3237599B}"/>
+    <hyperlink ref="B43" r:id="rId2" location="context" xr:uid="{9416714C-C28F-704A-BA38-00CAD9803B87}"/>
+    <hyperlink ref="B46" r:id="rId3" location="context" display="https://cds-hooks.hl7.org/hooks/STU1/encounter-start.html#context" xr:uid="{8541B9EE-082D-2B47-B042-F5BA6EE833CD}"/>
+    <hyperlink ref="B55" r:id="rId4" location="context" display="https://cds-hooks.hl7.org/hooks/STU1/encounter-start.html#context" xr:uid="{53D8E973-BD57-A74F-B763-71BBADDD4B36}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2976,7 +4901,7 @@
           <x14:formula1>
             <xm:f>'Column Data'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G99:G1048576 G1:G94</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2989,7 +4914,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3034,7 +4959,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3084,7 +5009,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3092,7 +5017,7 @@
         <v>64</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/lib/davinci_crd_test_kit/requirements/cds-hooks-library_1.0.1_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/cds-hooks-library_1.0.1_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C377E1E-418F-7B42-9E5B-C7D3DAA425A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF10EB-E13B-C94D-9836-96682E822072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Column Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$AH$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$AH$94</definedName>
     <definedName name="EXPLODE" localSheetId="0">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="EXPLODE">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="FIND_DUPLICATES" localSheetId="0">_xlfn.LAMBDA(_xlpm.test_word,_xlpm.test_key,_xlpm.words,_xlpm.keys,_xlpm.threshold, _xlfn.LET(_xlpm.duplist,_xlfn._xlws.FILTER(_xlpm.keys,_xlfn.BYROW(_xlpm.words, _xlfn.LAMBDA(_xlpm.word, Info!HAMDIST(INDEX(_xlpm.word,1,1), _xlpm.test_word)&lt;_xlpm.threshold))),_xlfn.SINGLE(_xlfn._xlws.FILTER(_xlpm.duplist,_xlpm.duplist&lt;&gt;_xlpm.test_key,""))))</definedName>
@@ -2793,10 +2793,10 @@
   <dimension ref="A1:X94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4885,7 +4885,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH1" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
+  <autoFilter ref="A1:AH94" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B34" r:id="rId1" location="context" xr:uid="{2B58701D-4D03-4442-A640-91CB3237599B}"/>
